--- a/0_dados/profissionais_conselhos.xlsx
+++ b/0_dados/profissionais_conselhos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e94e91ad3b9f2a1e/Documentos/GitHub/retencao/0_dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{859EE912-F9D3-4A64-A873-FE013F692027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3193D9C0-39B3-4388-AE72-6A2BBCFFFBAD}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{859EE912-F9D3-4A64-A873-FE013F692027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFB49823-0974-42C9-8A15-F20614E67349}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="35">
   <si>
     <t>Enfermeiros</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>profissionais</t>
+  </si>
+  <si>
+    <t>Técnicos e Auxiliares em Saúde Bucal</t>
   </si>
 </sst>
 </file>
@@ -579,10 +582,10 @@
   <dimension ref="A1:D676"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1798,109 +1801,325 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C110" s="4"/>
-    </row>
-    <row r="111" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C111" s="4"/>
-    </row>
-    <row r="112" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C112" s="4"/>
-    </row>
-    <row r="113" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C113" s="4"/>
-    </row>
-    <row r="114" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C114" s="4"/>
-    </row>
-    <row r="115" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C115" s="4"/>
-    </row>
-    <row r="116" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C116" s="4"/>
-    </row>
-    <row r="117" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C117" s="4"/>
-    </row>
-    <row r="118" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C118" s="4"/>
-    </row>
-    <row r="119" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C119" s="4"/>
-    </row>
-    <row r="120" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C120" s="4"/>
-    </row>
-    <row r="121" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C121" s="4"/>
-    </row>
-    <row r="122" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C122" s="4"/>
-    </row>
-    <row r="123" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C123" s="4"/>
-    </row>
-    <row r="124" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C124" s="4"/>
-    </row>
-    <row r="125" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C125" s="4"/>
-    </row>
-    <row r="126" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C126" s="4"/>
-    </row>
-    <row r="127" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C127" s="4"/>
-    </row>
-    <row r="128" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C128" s="4"/>
-    </row>
-    <row r="129" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C129" s="4"/>
-    </row>
-    <row r="130" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C130" s="4"/>
-    </row>
-    <row r="131" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C131" s="4"/>
-    </row>
-    <row r="132" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C132" s="4"/>
-    </row>
-    <row r="133" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C133" s="4"/>
-    </row>
-    <row r="134" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C134" s="4"/>
-    </row>
-    <row r="135" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C135" s="4"/>
-    </row>
-    <row r="136" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C136" s="4"/>
-    </row>
-    <row r="137" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A110" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="6">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A111" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="6">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="6">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A113" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="6">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C114" s="6">
+        <v>12578</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A115" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="6">
+        <v>8664</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A116" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" s="6">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A117" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="6">
+        <v>5142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A118" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" s="6">
+        <v>11018</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A119" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" s="6">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="6">
+        <v>26166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A121" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="6">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A122" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" s="6">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" s="6">
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A124" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" s="6">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A125" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" s="6">
+        <v>12090</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A126" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" s="6">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A127" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" s="6">
+        <v>10925</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A128" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="6">
+        <v>28947</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A129" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" s="6">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A130" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="6">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A131" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="6">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A132" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" s="6">
+        <v>12533</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A133" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133" s="6">
+        <v>8029</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A134" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C134" s="6">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A135" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="6">
+        <v>35401</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A136" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C137" s="4"/>
     </row>
-    <row r="138" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C139" s="4"/>
     </row>
-    <row r="140" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C140" s="4"/>
     </row>
-    <row r="141" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C141" s="4"/>
     </row>
-    <row r="142" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C142" s="4"/>
     </row>
-    <row r="143" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C143" s="4"/>
     </row>
-    <row r="144" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C144" s="4"/>
     </row>
     <row r="145" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -3504,7 +3723,7 @@
   <customSheetViews>
     <customSheetView guid="{B5F6EED5-512B-48DC-8AEE-C9B503A4115E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="E1:E995" xr:uid="{1BE1CF0A-AAA0-4FB2-998C-E2E90B8895B0}">
+      <autoFilter ref="E1:E995" xr:uid="{831E92D8-2A1E-4B81-B8C2-75F217742E15}">
         <filterColumn colId="0">
           <filters>
             <filter val="Técnicos Nutricionistas"/>
@@ -3514,6 +3733,7 @@
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>